--- a/documents/bacteria_waterquality_standards_clarification_SA comments_20210208.xlsx
+++ b/documents/bacteria_waterquality_standards_clarification_SA comments_20210208.xlsx
@@ -9,12 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20544" windowHeight="6468" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20550" windowHeight="6465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="questions_for_adec" sheetId="1" r:id="rId1"/>
     <sheet name="responses_from_adec" sheetId="2" r:id="rId2"/>
-    <sheet name="corrected_standards" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -563,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -598,9 +597,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -889,17 +885,17 @@
       <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -925,7 +921,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="85.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -948,7 +944,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="6" customFormat="1" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -971,7 +967,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="156.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="6" customFormat="1" ht="156.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -992,7 +988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1001,7 +997,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
@@ -1023,25 +1019,25 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" customWidth="1"/>
-    <col min="10" max="10" width="48.109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="115.44140625" customWidth="1"/>
+    <col min="8" max="8" width="32.42578125" customWidth="1"/>
+    <col min="10" max="10" width="48.140625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="115.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1069,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="245.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="6" customFormat="1" ht="245.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1101,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="6" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" s="6" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1134,7 +1130,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="6" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" s="6" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -1164,7 +1160,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1178,89 +1174,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="37.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="32.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A6:G6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
 </file>